--- a/task_management/exported_data.xlsx
+++ b/task_management/exported_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>icode</t>
   </si>
@@ -44,130 +44,313 @@
     <t>Total To Be</t>
   </si>
   <si>
+    <t>18 x 7 - 8 (4.33) TEAM STAR FAGA NM CLIP</t>
+  </si>
+  <si>
+    <t>A5-CV1</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>2023-09-26 13:38:12</t>
+  </si>
+  <si>
+    <t>2023-09-26 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-09-27 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-09-27 14:58:12</t>
+  </si>
+  <si>
+    <t>23 X 10 - 12 (8.00) NEXEN ALLPRO BLACK STD</t>
+  </si>
+  <si>
+    <t>B2-CV1</t>
+  </si>
+  <si>
+    <t>M74</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>2023-09-27 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-09-28 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-09-28 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-09-29 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-09-29 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-09-30 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-09-30 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-01 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-02 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-03 14:38:12</t>
+  </si>
+  <si>
+    <t>7.50 - 16 (6.00) NEXEN BLACK STD</t>
+  </si>
+  <si>
+    <t>B2-CV4</t>
+  </si>
+  <si>
+    <t>M199</t>
+  </si>
+  <si>
+    <t>2023-10-03 01:38:12</t>
+  </si>
+  <si>
     <t>7.00 - 12 (5.00) NEXEN ALLPRO BLACK STD</t>
   </si>
   <si>
+    <t>B3-CV1</t>
+  </si>
+  <si>
+    <t>M192</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>2023-09-28 10:38:12</t>
+  </si>
+  <si>
+    <t>7.00 - 12 (5.00) NEXEN ALLPRO BLACK CLIP</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:08:12</t>
+  </si>
+  <si>
+    <t>2023-09-29 05:23:12</t>
+  </si>
+  <si>
+    <t>2023-10-03 06:53:12</t>
+  </si>
+  <si>
+    <t>2023-10-03 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-04 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-04 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-05 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-06 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-06 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-07 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-08 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-08 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-09 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-10 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-11 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-12 15:53:12</t>
+  </si>
+  <si>
+    <t>M190</t>
+  </si>
+  <si>
+    <t>2023-09-28 06:53:12</t>
+  </si>
+  <si>
+    <t>B3-CV2</t>
+  </si>
+  <si>
+    <t>M191</t>
+  </si>
+  <si>
+    <t>2023-09-28 14:23:12</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:08:12</t>
+  </si>
+  <si>
+    <t>2023-10-12 00:53:12</t>
+  </si>
+  <si>
     <t>B3-CV3</t>
   </si>
   <si>
-    <t>M192</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>2023-09-05 10:30:31</t>
-  </si>
-  <si>
-    <t>2023-09-05 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-09-06 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-09-06 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-09-07 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-09-07 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-09-08 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-09-08 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-09-09 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-09-09 08:15:31</t>
-  </si>
-  <si>
-    <t>B3-CV2</t>
-  </si>
-  <si>
-    <t>M191</t>
-  </si>
-  <si>
-    <t>B3-CV1</t>
-  </si>
-  <si>
-    <t>M190</t>
-  </si>
-  <si>
-    <t>6.50 - 10 (5.00) NEXEN ALLPRO BLACK STD</t>
-  </si>
-  <si>
-    <t>B5-CV2</t>
-  </si>
-  <si>
-    <t>M178</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>2023-09-06 06:30:31</t>
-  </si>
-  <si>
-    <t>B5-CV1</t>
-  </si>
-  <si>
-    <t>M177</t>
-  </si>
-  <si>
-    <t>B6-CV4</t>
-  </si>
-  <si>
-    <t>M176</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B6-CV3</t>
-  </si>
-  <si>
-    <t>M175</t>
-  </si>
-  <si>
-    <t>B6-CV2</t>
-  </si>
-  <si>
-    <t>M174</t>
-  </si>
-  <si>
-    <t>2023-09-06 09:50:31</t>
-  </si>
-  <si>
-    <t>B6-CV1</t>
-  </si>
-  <si>
-    <t>M173</t>
-  </si>
-  <si>
-    <t>6.00 - 9 (4.00) NEXEN ALLPRO BLACK STD</t>
+    <t>2023-10-02 19:38:12</t>
+  </si>
+  <si>
+    <t>2023-10-08 10:38:12</t>
+  </si>
+  <si>
+    <t>C1-CV1</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>18 x 7 - 8 (4.33) NEXEN ALLPRO BLACK CLIP</t>
   </si>
   <si>
     <t>C5-CV2</t>
   </si>
   <si>
-    <t>M157</t>
+    <t>M50</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>2023-09-05 19:00:31</t>
-  </si>
-  <si>
-    <t>C5-CV1</t>
-  </si>
-  <si>
-    <t>M156</t>
+    <t>2023-09-28 08:08:12</t>
+  </si>
+  <si>
+    <t>C6-CV1</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>2023-09-26 16:28:12</t>
+  </si>
+  <si>
+    <t>2023-09-28 10:58:12</t>
+  </si>
+  <si>
+    <t>M48</t>
+  </si>
+  <si>
+    <t>2023-09-28 05:18:12</t>
+  </si>
+  <si>
+    <t>2023-09-29 20:58:12</t>
+  </si>
+  <si>
+    <t>C6-CV3</t>
+  </si>
+  <si>
+    <t>M52</t>
+  </si>
+  <si>
+    <t>C6-CV5</t>
+  </si>
+  <si>
+    <t>M49</t>
+  </si>
+  <si>
+    <t>M51</t>
+  </si>
+  <si>
+    <t>2023-09-28 02:28:12</t>
+  </si>
+  <si>
+    <t>2023-09-29 18:08:12</t>
+  </si>
+  <si>
+    <t>8.25 - 15 (6.50) NEXEN BLACK STD</t>
+  </si>
+  <si>
+    <t>D1-CV1</t>
+  </si>
+  <si>
+    <t>M210</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>2023-09-29 15:23:12</t>
+  </si>
+  <si>
+    <t>2023-10-04 23:13:12</t>
+  </si>
+  <si>
+    <t>D1-CV2</t>
+  </si>
+  <si>
+    <t>M206</t>
+  </si>
+  <si>
+    <t>2023-09-29 20:18:12</t>
+  </si>
+  <si>
+    <t>2023-10-05 09:03:12</t>
+  </si>
+  <si>
+    <t>D1-CV3</t>
+  </si>
+  <si>
+    <t>M205</t>
+  </si>
+  <si>
+    <t>2023-10-05 13:58:12</t>
   </si>
 </sst>
 </file>
@@ -507,7 +690,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +729,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>125301</v>
+        <v>104034</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -570,12 +753,12 @@
         <v>14</v>
       </c>
       <c r="I2">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>125301</v>
+        <v>104034</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -590,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -599,259 +782,259 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>125301</v>
+        <v>126301</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>125301</v>
+        <v>126301</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>125301</v>
+        <v>126301</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>125301</v>
+        <v>126301</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>125301</v>
+        <v>126301</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I8">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>125301</v>
+        <v>126301</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I9">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>125301</v>
+        <v>126301</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I10">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>125301</v>
+        <v>126301</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I11">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>125301</v>
+        <v>171301</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -860,149 +1043,149 @@
         <v>14</v>
       </c>
       <c r="I12">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>125301</v>
+        <v>171301</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>125301</v>
+        <v>171301</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>125301</v>
+        <v>171301</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
       <c r="I15">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>125301</v>
+        <v>171301</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I16">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>119301</v>
+        <v>171301</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
         <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
       </c>
       <c r="I17">
         <v>32</v>
@@ -1010,25 +1193,25 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>119301</v>
+        <v>171301</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
       </c>
       <c r="H18" t="s">
         <v>31</v>
@@ -1039,28 +1222,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>119301</v>
+        <v>171301</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>32</v>
@@ -1068,155 +1251,155 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>119301</v>
+        <v>125301</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I20">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>119301</v>
+        <v>125301</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I21">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>119301</v>
+        <v>125301</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I22">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>119301</v>
+        <v>125302</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>119301</v>
+        <v>125302</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I24">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>119301</v>
+        <v>125301</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1225,27 +1408,27 @@
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>119301</v>
+        <v>125301</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1254,135 +1437,3035 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I26">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>119301</v>
+        <v>125301</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I27">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>119301</v>
+        <v>125301</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I28">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>111301</v>
+        <v>125301</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29">
-        <v>6</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>111301</v>
+        <v>125301</v>
       </c>
       <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>125301</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>125301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>125301</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>125301</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>125301</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>125301</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>125301</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>125301</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>125301</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>125302</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+      <c r="I40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>125301</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>125301</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>125301</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>125301</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>125301</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>125301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>125301</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>125301</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>125301</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>125301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>125301</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" t="s">
         <v>49</v>
       </c>
-      <c r="D30" t="s">
+      <c r="I51">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>125301</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
         <v>50</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>125301</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>125301</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>125301</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>125301</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>125301</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>125301</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>125301</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>125301</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>125301</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>125301</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>125301</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>125301</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>125301</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>125301</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>125301</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>125301</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>125301</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>125301</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>125301</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>125301</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>125301</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s">
         <v>47</v>
       </c>
-      <c r="F30">
+      <c r="I73">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>125301</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>125301</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>125301</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I76">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>125301</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>125301</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>125302</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>104034</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80">
         <v>3</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G80" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>104034</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>104302</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>104302</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>104302</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>83</v>
+      </c>
+      <c r="I84">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>104302</v>
+      </c>
+      <c r="B85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>104302</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>104302</v>
+      </c>
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s">
+        <v>88</v>
+      </c>
+      <c r="I87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>104302</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>104302</v>
+      </c>
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s">
+        <v>91</v>
+      </c>
+      <c r="I89">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>104302</v>
+      </c>
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" t="s">
+        <v>86</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>87</v>
+      </c>
+      <c r="I90">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>104302</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>104302</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>104302</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>104302</v>
+      </c>
+      <c r="B94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>104302</v>
+      </c>
+      <c r="B95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>104302</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s">
+        <v>83</v>
+      </c>
+      <c r="I96">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>104302</v>
+      </c>
+      <c r="B97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97" t="s">
+        <v>97</v>
+      </c>
+      <c r="H97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>104302</v>
+      </c>
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s">
+        <v>98</v>
+      </c>
+      <c r="I98">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>138301</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" t="s">
+        <v>102</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>138301</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>138301</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>100</v>
+      </c>
+      <c r="D101" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>138301</v>
+      </c>
+      <c r="B102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>102</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I102">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>138301</v>
+      </c>
+      <c r="B103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>103</v>
+      </c>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>138301</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>138301</v>
+      </c>
+      <c r="B105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>138301</v>
+      </c>
+      <c r="B106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" t="s">
+        <v>102</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>138301</v>
+      </c>
+      <c r="B107" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>32</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>138301</v>
+      </c>
+      <c r="B108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" t="s">
+        <v>102</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
         <v>48</v>
       </c>
-      <c r="I30">
-        <v>6</v>
+      <c r="H108" t="s">
+        <v>104</v>
+      </c>
+      <c r="I108">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>138301</v>
+      </c>
+      <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>138301</v>
+      </c>
+      <c r="B110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" t="s">
+        <v>106</v>
+      </c>
+      <c r="E110" t="s">
+        <v>102</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>138301</v>
+      </c>
+      <c r="B111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" t="s">
+        <v>102</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>138301</v>
+      </c>
+      <c r="B112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" t="s">
+        <v>106</v>
+      </c>
+      <c r="E112" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s">
+        <v>107</v>
+      </c>
+      <c r="I112">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>138301</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>105</v>
+      </c>
+      <c r="D113" t="s">
+        <v>106</v>
+      </c>
+      <c r="E113" t="s">
+        <v>102</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>107</v>
+      </c>
+      <c r="H113" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>138301</v>
+      </c>
+      <c r="B114" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>138301</v>
+      </c>
+      <c r="B115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" t="s">
+        <v>106</v>
+      </c>
+      <c r="E115" t="s">
+        <v>102</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>138301</v>
+      </c>
+      <c r="B116" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" t="s">
+        <v>106</v>
+      </c>
+      <c r="E116" t="s">
+        <v>102</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>138301</v>
+      </c>
+      <c r="B117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" t="s">
+        <v>102</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>32</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>138301</v>
+      </c>
+      <c r="B118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" t="s">
+        <v>106</v>
+      </c>
+      <c r="E118" t="s">
+        <v>102</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>48</v>
+      </c>
+      <c r="H118" t="s">
+        <v>49</v>
+      </c>
+      <c r="I118">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>138301</v>
+      </c>
+      <c r="B119" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" t="s">
+        <v>102</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>50</v>
+      </c>
+      <c r="H119" t="s">
+        <v>108</v>
+      </c>
+      <c r="I119">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>138301</v>
+      </c>
+      <c r="B120" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" t="s">
+        <v>102</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>138301</v>
+      </c>
+      <c r="B121" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" t="s">
+        <v>109</v>
+      </c>
+      <c r="D121" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>138301</v>
+      </c>
+      <c r="B122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" t="s">
+        <v>109</v>
+      </c>
+      <c r="D122" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" t="s">
+        <v>102</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s">
+        <v>23</v>
+      </c>
+      <c r="I122">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>138301</v>
+      </c>
+      <c r="B123" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" t="s">
+        <v>102</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s">
+        <v>107</v>
+      </c>
+      <c r="I123">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>138301</v>
+      </c>
+      <c r="B124" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" t="s">
+        <v>109</v>
+      </c>
+      <c r="D124" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" t="s">
+        <v>102</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>107</v>
+      </c>
+      <c r="H124" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>138301</v>
+      </c>
+      <c r="B125" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" t="s">
+        <v>109</v>
+      </c>
+      <c r="D125" t="s">
+        <v>110</v>
+      </c>
+      <c r="E125" t="s">
+        <v>102</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>138301</v>
+      </c>
+      <c r="B126" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" t="s">
+        <v>110</v>
+      </c>
+      <c r="E126" t="s">
+        <v>102</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>138301</v>
+      </c>
+      <c r="B127" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" t="s">
+        <v>109</v>
+      </c>
+      <c r="D127" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" t="s">
+        <v>102</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>138301</v>
+      </c>
+      <c r="B128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" t="s">
+        <v>109</v>
+      </c>
+      <c r="D128" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" t="s">
+        <v>102</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>32</v>
+      </c>
+      <c r="H128" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>138301</v>
+      </c>
+      <c r="B129" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" t="s">
+        <v>109</v>
+      </c>
+      <c r="D129" t="s">
+        <v>110</v>
+      </c>
+      <c r="E129" t="s">
+        <v>102</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129" t="s">
+        <v>48</v>
+      </c>
+      <c r="H129" t="s">
+        <v>49</v>
+      </c>
+      <c r="I129">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>138301</v>
+      </c>
+      <c r="B130" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" t="s">
+        <v>109</v>
+      </c>
+      <c r="D130" t="s">
+        <v>110</v>
+      </c>
+      <c r="E130" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>50</v>
+      </c>
+      <c r="H130" t="s">
+        <v>111</v>
+      </c>
+      <c r="I130">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/task_management/exported_data.xlsx
+++ b/task_management/exported_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>icode</t>
   </si>
@@ -44,313 +44,430 @@
     <t>Total To Be</t>
   </si>
   <si>
-    <t>18 x 7 - 8 (4.33) TEAM STAR FAGA NM CLIP</t>
-  </si>
-  <si>
-    <t>A5-CV1</t>
+    <t>5.00 - 8 (3.00) NEXEN ALLPRO BLACK STD</t>
+  </si>
+  <si>
+    <t>A8-CV1</t>
+  </si>
+  <si>
+    <t>M142</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>2023-10-08 14:46:23</t>
+  </si>
+  <si>
+    <t>2023-10-08 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-09 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-10 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-11 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-12 14:26:23</t>
+  </si>
+  <si>
+    <t>18 x 6 x 12 1/8 ATIRE RUNNER BAND BLACK SM</t>
+  </si>
+  <si>
+    <t>M564</t>
+  </si>
+  <si>
+    <t>2023-10-08 10:06:23</t>
+  </si>
+  <si>
+    <t>A8-CV2</t>
+  </si>
+  <si>
+    <t>M143</t>
+  </si>
+  <si>
+    <t>2023-10-12 09:46:23</t>
+  </si>
+  <si>
+    <t>A8-CV3</t>
+  </si>
+  <si>
+    <t>M144</t>
+  </si>
+  <si>
+    <t>15 x 4.5 - 8 (3.00) ACHIEVER PLUS (WIDE ) NM CLIP</t>
+  </si>
+  <si>
+    <t>A10-CV1</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>2023-10-08 21:26:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 14:26:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:36:23</t>
+  </si>
+  <si>
+    <t>2023-10-10 04:36:23</t>
+  </si>
+  <si>
+    <t>2023-10-08 15:46:23</t>
+  </si>
+  <si>
+    <t>A10-CV2</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:56:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:26:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 22:46:23</t>
+  </si>
+  <si>
+    <t>7.00 - 15 (5.50) ACHIEVER BLACK STD</t>
+  </si>
+  <si>
+    <t>B1-CV1</t>
+  </si>
+  <si>
+    <t>M193</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:26:23</t>
+  </si>
+  <si>
+    <t>2023-10-11 20:26:23</t>
+  </si>
+  <si>
+    <t>7.00 - 12 (5.00) NEXEN ALLPRO BLACK STD</t>
+  </si>
+  <si>
+    <t>B3-CV1</t>
+  </si>
+  <si>
+    <t>M190</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>2023-10-11 09:21:23</t>
+  </si>
+  <si>
+    <t>23 X 9 - 10 (6.50) NEXEN ALLPRO BLACK STD</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>2023-10-12 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-13 21:21:23</t>
+  </si>
+  <si>
+    <t>B3-CV2</t>
+  </si>
+  <si>
+    <t>M191</t>
+  </si>
+  <si>
+    <t>B3-CV3</t>
+  </si>
+  <si>
+    <t>M192</t>
+  </si>
+  <si>
+    <t>6.50 - 10 (5.00) NEXEN ALLPRO BLACK STD</t>
+  </si>
+  <si>
+    <t>B6-CV1</t>
+  </si>
+  <si>
+    <t>M173</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>2023-10-09 06:06:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:06:23</t>
+  </si>
+  <si>
+    <t>2023-10-10 08:46:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 02:46:23</t>
+  </si>
+  <si>
+    <t>B6-CV2</t>
+  </si>
+  <si>
+    <t>M174</t>
+  </si>
+  <si>
+    <t>2023-10-09 19:26:23</t>
+  </si>
+  <si>
+    <t>2023-10-10 12:06:23</t>
+  </si>
+  <si>
+    <t>18 x 7 - 8 (4.33) ACHIEVER NM CLIP</t>
+  </si>
+  <si>
+    <t>C1-CV1</t>
   </si>
   <si>
     <t>M34</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>2023-09-26 13:38:12</t>
-  </si>
-  <si>
-    <t>2023-09-26 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-09-27 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-09-27 14:58:12</t>
-  </si>
-  <si>
-    <t>23 X 10 - 12 (8.00) NEXEN ALLPRO BLACK STD</t>
-  </si>
-  <si>
-    <t>B2-CV1</t>
-  </si>
-  <si>
-    <t>M74</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>2023-09-27 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-09-28 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-09-28 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-09-29 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-09-29 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-09-30 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-09-30 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-02 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-03 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 14:38:12</t>
-  </si>
-  <si>
-    <t>7.50 - 16 (6.00) NEXEN BLACK STD</t>
-  </si>
-  <si>
-    <t>B2-CV4</t>
-  </si>
-  <si>
-    <t>M199</t>
-  </si>
-  <si>
-    <t>2023-10-03 01:38:12</t>
-  </si>
-  <si>
-    <t>7.00 - 12 (5.00) NEXEN ALLPRO BLACK STD</t>
-  </si>
-  <si>
-    <t>B3-CV1</t>
-  </si>
-  <si>
-    <t>M192</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>2023-09-28 10:38:12</t>
-  </si>
-  <si>
-    <t>7.00 - 12 (5.00) NEXEN ALLPRO BLACK CLIP</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:08:12</t>
-  </si>
-  <si>
-    <t>2023-09-29 05:23:12</t>
-  </si>
-  <si>
-    <t>2023-10-03 06:53:12</t>
-  </si>
-  <si>
-    <t>2023-10-03 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-04 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-05 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-05 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-06 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-06 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-07 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-07 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-08 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-08 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-09 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-09 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-10 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-10 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-11 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-11 23:59:59</t>
-  </si>
-  <si>
-    <t>2023-10-12 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-12 15:53:12</t>
-  </si>
-  <si>
-    <t>M190</t>
-  </si>
-  <si>
-    <t>2023-09-28 06:53:12</t>
-  </si>
-  <si>
-    <t>B3-CV2</t>
-  </si>
-  <si>
-    <t>M191</t>
-  </si>
-  <si>
-    <t>2023-09-28 14:23:12</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:08:12</t>
-  </si>
-  <si>
-    <t>2023-10-12 00:53:12</t>
-  </si>
-  <si>
-    <t>B3-CV3</t>
-  </si>
-  <si>
-    <t>2023-10-02 19:38:12</t>
-  </si>
-  <si>
-    <t>2023-10-08 10:38:12</t>
-  </si>
-  <si>
-    <t>C1-CV1</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>2023-10-08 22:46:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:16:23</t>
+  </si>
+  <si>
+    <t>2023-10-08 16:26:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 05:06:23</t>
+  </si>
+  <si>
+    <t>18 x 7 - 8 (4.33) ACHIEVER PLUS NM CLIP</t>
+  </si>
+  <si>
+    <t>C1-CV2</t>
+  </si>
+  <si>
+    <t>M38</t>
+  </si>
+  <si>
+    <t>2023-10-08 13:16:23</t>
+  </si>
+  <si>
+    <t>C1-CV3</t>
+  </si>
+  <si>
+    <t>M37</t>
+  </si>
+  <si>
+    <t>C1-CV4</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>C1-CV5</t>
   </si>
   <si>
     <t>M35</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>18 x 7 - 8 (4.33) NEXEN ALLPRO BLACK CLIP</t>
-  </si>
-  <si>
-    <t>C5-CV2</t>
-  </si>
-  <si>
-    <t>M50</t>
+    <t>C5-CV4</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>2023-09-28 08:08:12</t>
+    <t>2023-10-09 17:46:23</t>
+  </si>
+  <si>
+    <t>18 x 7 - 8 (4.33) NEXEN BLACK STD</t>
   </si>
   <si>
     <t>C6-CV1</t>
   </si>
   <si>
+    <t>M48</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>2023-10-09 22:56:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 20:06:23</t>
+  </si>
+  <si>
+    <t>2023-10-11 08:56:23</t>
+  </si>
+  <si>
+    <t>C6-CV2</t>
+  </si>
+  <si>
     <t>M47</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>2023-09-26 16:28:12</t>
-  </si>
-  <si>
-    <t>2023-09-28 10:58:12</t>
-  </si>
-  <si>
-    <t>M48</t>
-  </si>
-  <si>
-    <t>2023-09-28 05:18:12</t>
-  </si>
-  <si>
-    <t>2023-09-29 20:58:12</t>
+    <t>2023-10-09 17:16:23</t>
+  </si>
+  <si>
+    <t>2023-10-11 03:16:23</t>
   </si>
   <si>
     <t>C6-CV3</t>
   </si>
   <si>
-    <t>M52</t>
-  </si>
-  <si>
-    <t>C6-CV5</t>
-  </si>
-  <si>
     <t>M49</t>
   </si>
   <si>
-    <t>M51</t>
-  </si>
-  <si>
-    <t>2023-09-28 02:28:12</t>
-  </si>
-  <si>
-    <t>2023-09-29 18:08:12</t>
-  </si>
-  <si>
-    <t>8.25 - 15 (6.50) NEXEN BLACK STD</t>
-  </si>
-  <si>
-    <t>D1-CV1</t>
-  </si>
-  <si>
-    <t>M210</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>2023-09-29 15:23:12</t>
-  </si>
-  <si>
-    <t>2023-10-04 23:13:12</t>
-  </si>
-  <si>
-    <t>D1-CV2</t>
-  </si>
-  <si>
-    <t>M206</t>
-  </si>
-  <si>
-    <t>2023-09-29 20:18:12</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:03:12</t>
-  </si>
-  <si>
-    <t>D1-CV3</t>
-  </si>
-  <si>
-    <t>M205</t>
-  </si>
-  <si>
-    <t>2023-10-05 13:58:12</t>
+    <t>2023-10-13 13:51:23</t>
+  </si>
+  <si>
+    <t>2023-10-13 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-14 23:51:23</t>
+  </si>
+  <si>
+    <t>2023-10-14 21:01:23</t>
+  </si>
+  <si>
+    <t>2023-10-14 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-15 23:59:59</t>
+  </si>
+  <si>
+    <t>2023-10-16 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-16 07:01:23</t>
+  </si>
+  <si>
+    <t>21 x 7 x 15 ATIRE RUNNER BAND BLACK SM</t>
+  </si>
+  <si>
+    <t>C7-CV1</t>
+  </si>
+  <si>
+    <t>M578</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>21 x 8 x 15 ATIRE RUNNER BAND BLACK SM</t>
+  </si>
+  <si>
+    <t>C7-CV2</t>
+  </si>
+  <si>
+    <t>M584</t>
+  </si>
+  <si>
+    <t>2023-10-08 18:36:23</t>
+  </si>
+  <si>
+    <t>9.00 - 20 (7.00) ACHIEVER PLUS BLACK STD</t>
+  </si>
+  <si>
+    <t>D3-CV1</t>
+  </si>
+  <si>
+    <t>M207</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>2023-10-13 22:21:23</t>
+  </si>
+  <si>
+    <t>2023-10-16 13:36:23</t>
+  </si>
+  <si>
+    <t>40 x 16 x 30 RUNNER BAND BLACK SM</t>
+  </si>
+  <si>
+    <t>F1-CV1</t>
+  </si>
+  <si>
+    <t>M616</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:11:23</t>
+  </si>
+  <si>
+    <t>8.15 - 15 (28 X9 - 15) (7.00) NEXEN ALLPRO BLACK STD</t>
+  </si>
+  <si>
+    <t>B8-CV1</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>2023-10-08 14:26:23</t>
+  </si>
+  <si>
+    <t>B8-CV2</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>250 - 15 (7.00) ATIRE RUNNER SOLID BLACK CLIP</t>
+  </si>
+  <si>
+    <t>B9-CV1</t>
+  </si>
+  <si>
+    <t>M85</t>
+  </si>
+  <si>
+    <t>B9</t>
   </si>
 </sst>
 </file>
@@ -690,7 +807,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,7 +846,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>104034</v>
+        <v>102301</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -753,12 +870,12 @@
         <v>14</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>104034</v>
+        <v>102301</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -773,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -782,790 +899,790 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>126301</v>
+        <v>102301</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>126301</v>
+        <v>102301</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
       <c r="I5">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>126301</v>
+        <v>102301</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>126301</v>
+        <v>714071</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>126301</v>
+        <v>102301</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>126301</v>
+        <v>102301</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>126301</v>
+        <v>102301</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
       <c r="I10">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>126301</v>
+        <v>102301</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
       <c r="I11">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>171301</v>
+        <v>102301</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>171301</v>
+        <v>102301</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I13">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>171301</v>
+        <v>102301</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I14">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>171301</v>
+        <v>102301</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I15">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>171301</v>
+        <v>102301</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
       <c r="I16">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>171301</v>
+        <v>102301</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
       <c r="I17">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>171301</v>
+        <v>101164</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>171301</v>
+        <v>101164</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
       <c r="I19">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>125301</v>
+        <v>101164</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>125301</v>
+        <v>101164</v>
       </c>
       <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
       <c r="I21">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>125301</v>
+        <v>101164</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I22">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>125302</v>
+        <v>101164</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>125302</v>
+        <v>101164</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>125301</v>
+        <v>101164</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I25">
-        <v>272</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>125301</v>
+        <v>141001</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I26">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>125301</v>
+        <v>141001</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I27">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>125301</v>
+        <v>141001</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I28">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>125301</v>
+        <v>141001</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I29">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>125301</v>
+        <v>141001</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I30">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1573,28 +1690,28 @@
         <v>125301</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I31">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1602,28 +1719,28 @@
         <v>125301</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32">
         <v>51</v>
-      </c>
-      <c r="I32">
-        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1631,28 +1748,28 @@
         <v>125301</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I33">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1660,115 +1777,115 @@
         <v>125301</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
         <v>55</v>
       </c>
       <c r="I34">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>125301</v>
+        <v>120301</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I35">
-        <v>272</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>125301</v>
+        <v>120301</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
         <v>58</v>
       </c>
-      <c r="H36" t="s">
-        <v>59</v>
-      </c>
       <c r="I36">
-        <v>272</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>125301</v>
+        <v>120301</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
         <v>60</v>
       </c>
-      <c r="H37" t="s">
-        <v>61</v>
-      </c>
       <c r="I37">
-        <v>272</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1776,28 +1893,28 @@
         <v>125301</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="I38">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1805,57 +1922,57 @@
         <v>125301</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I39">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>125302</v>
+        <v>125301</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1863,28 +1980,28 @@
         <v>125301</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I41">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1892,28 +2009,28 @@
         <v>125301</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I42">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1921,28 +2038,28 @@
         <v>125301</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I43">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1950,28 +2067,28 @@
         <v>125301</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I44">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1979,2493 +2096,1652 @@
         <v>125301</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I45">
-        <v>272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" t="s">
         <v>68</v>
       </c>
-      <c r="D46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" t="s">
-        <v>41</v>
-      </c>
       <c r="F46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46">
         <v>27</v>
-      </c>
-      <c r="I46">
-        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
         <v>68</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
         <v>69</v>
       </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s">
-        <v>29</v>
-      </c>
       <c r="I47">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
         <v>68</v>
       </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" t="s">
-        <v>41</v>
-      </c>
       <c r="F48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I48">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
         <v>68</v>
       </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" t="s">
-        <v>41</v>
-      </c>
       <c r="F49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
         <v>71</v>
       </c>
-      <c r="H49" t="s">
-        <v>31</v>
-      </c>
       <c r="I49">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" t="s">
         <v>68</v>
       </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" t="s">
-        <v>41</v>
-      </c>
       <c r="F50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I50">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" t="s">
         <v>68</v>
       </c>
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" t="s">
-        <v>41</v>
-      </c>
       <c r="F51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I51">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" t="s">
         <v>68</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
         <v>69</v>
       </c>
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" t="s">
-        <v>51</v>
-      </c>
       <c r="I52">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" t="s">
         <v>68</v>
       </c>
-      <c r="D53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" t="s">
-        <v>41</v>
-      </c>
       <c r="F53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I53">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" t="s">
         <v>68</v>
       </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" t="s">
-        <v>41</v>
-      </c>
       <c r="F54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I54">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>125301</v>
+        <v>119301</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" t="s">
         <v>68</v>
       </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" t="s">
-        <v>41</v>
-      </c>
       <c r="F55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="I55">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>125301</v>
+        <v>104004</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I56">
-        <v>272</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>125301</v>
+        <v>104004</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I57">
-        <v>272</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>125301</v>
+        <v>104004</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="I58">
-        <v>272</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>125301</v>
+        <v>104004</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I59">
-        <v>272</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>125301</v>
+        <v>104004</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="I60">
-        <v>272</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>125301</v>
+        <v>104004</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I61">
-        <v>272</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>125301</v>
+        <v>104014</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I62">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>125301</v>
+        <v>104014</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I63">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>125301</v>
+        <v>104014</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64">
         <v>6</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64">
-        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>125301</v>
+        <v>104014</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65">
         <v>6</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65">
-        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>125301</v>
+        <v>104014</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66">
         <v>6</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66">
-        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I67">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I68">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I69">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I70">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I71">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I72">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="I73">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="H74" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I74">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I75">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I76">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="H77" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I77">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>125301</v>
+        <v>104301</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H78" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="I78">
-        <v>272</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>125302</v>
+        <v>104301</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>104034</v>
+        <v>104301</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="I80">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>104034</v>
+        <v>104301</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="H81" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I81">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>104302</v>
+        <v>719071</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I82">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>104302</v>
+        <v>720071</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E83" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I83">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>104302</v>
+        <v>720071</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I84">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F85">
         <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
       </c>
       <c r="I85">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
         <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I86">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="E87" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I87">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I88">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H89" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="I89">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H90" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="I90">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="I91">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D92" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E92" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="H92" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I92">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="H93" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="I93">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>104302</v>
+        <v>151011</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E94" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="I94">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>104302</v>
+        <v>726071</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H95" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I95">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>104302</v>
+        <v>135301</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s">
+        <v>144</v>
+      </c>
+      <c r="I96">
         <v>2</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s">
-        <v>83</v>
-      </c>
-      <c r="I96">
-        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>104302</v>
+        <v>135301</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="I97">
-        <v>79</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>104302</v>
+        <v>133042</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="D98" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H98" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="I98">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>138301</v>
+        <v>133042</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E99" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I99">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>138301</v>
+        <v>133042</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="F100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I100">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>138301</v>
+        <v>133042</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D101" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="F101">
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I101">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102">
-        <v>138301</v>
-      </c>
-      <c r="B102" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" t="s">
-        <v>102</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H102" t="s">
-        <v>103</v>
-      </c>
-      <c r="I102">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103">
-        <v>138301</v>
-      </c>
-      <c r="B103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" t="s">
-        <v>100</v>
-      </c>
-      <c r="D103" t="s">
-        <v>101</v>
-      </c>
-      <c r="E103" t="s">
-        <v>102</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
-        <v>103</v>
-      </c>
-      <c r="H103" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104">
-        <v>138301</v>
-      </c>
-      <c r="B104" t="s">
-        <v>99</v>
-      </c>
-      <c r="C104" t="s">
-        <v>100</v>
-      </c>
-      <c r="D104" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" t="s">
-        <v>102</v>
-      </c>
-      <c r="F104">
-        <v>4</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
-      <c r="H104" t="s">
-        <v>27</v>
-      </c>
-      <c r="I104">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105">
-        <v>138301</v>
-      </c>
-      <c r="B105" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" t="s">
-        <v>100</v>
-      </c>
-      <c r="D105" t="s">
-        <v>101</v>
-      </c>
-      <c r="E105" t="s">
-        <v>102</v>
-      </c>
-      <c r="F105">
-        <v>4</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s">
-        <v>29</v>
-      </c>
-      <c r="I105">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106">
-        <v>138301</v>
-      </c>
-      <c r="B106" t="s">
-        <v>99</v>
-      </c>
-      <c r="C106" t="s">
-        <v>100</v>
-      </c>
-      <c r="D106" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" t="s">
-        <v>102</v>
-      </c>
-      <c r="F106">
-        <v>4</v>
-      </c>
-      <c r="G106" t="s">
-        <v>30</v>
-      </c>
-      <c r="H106" t="s">
-        <v>31</v>
-      </c>
-      <c r="I106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107">
-        <v>138301</v>
-      </c>
-      <c r="B107" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" t="s">
-        <v>101</v>
-      </c>
-      <c r="E107" t="s">
-        <v>102</v>
-      </c>
-      <c r="F107">
-        <v>4</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
-      <c r="H107" t="s">
-        <v>47</v>
-      </c>
-      <c r="I107">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108">
-        <v>138301</v>
-      </c>
-      <c r="B108" t="s">
-        <v>99</v>
-      </c>
-      <c r="C108" t="s">
-        <v>100</v>
-      </c>
-      <c r="D108" t="s">
-        <v>101</v>
-      </c>
-      <c r="E108" t="s">
-        <v>102</v>
-      </c>
-      <c r="F108">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>48</v>
-      </c>
-      <c r="H108" t="s">
-        <v>104</v>
-      </c>
-      <c r="I108">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109">
-        <v>138301</v>
-      </c>
-      <c r="B109" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" t="s">
-        <v>105</v>
-      </c>
-      <c r="D109" t="s">
-        <v>106</v>
-      </c>
-      <c r="E109" t="s">
-        <v>102</v>
-      </c>
-      <c r="F109">
-        <v>2</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110">
-        <v>138301</v>
-      </c>
-      <c r="B110" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" t="s">
-        <v>105</v>
-      </c>
-      <c r="D110" t="s">
-        <v>106</v>
-      </c>
-      <c r="E110" t="s">
-        <v>102</v>
-      </c>
-      <c r="F110">
-        <v>4</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" t="s">
-        <v>21</v>
-      </c>
-      <c r="I110">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111">
-        <v>138301</v>
-      </c>
-      <c r="B111" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" t="s">
-        <v>105</v>
-      </c>
-      <c r="D111" t="s">
-        <v>106</v>
-      </c>
-      <c r="E111" t="s">
-        <v>102</v>
-      </c>
-      <c r="F111">
-        <v>4</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" t="s">
-        <v>23</v>
-      </c>
-      <c r="I111">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
-        <v>138301</v>
-      </c>
-      <c r="B112" t="s">
-        <v>99</v>
-      </c>
-      <c r="C112" t="s">
-        <v>105</v>
-      </c>
-      <c r="D112" t="s">
-        <v>106</v>
-      </c>
-      <c r="E112" t="s">
-        <v>102</v>
-      </c>
-      <c r="F112">
-        <v>4</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
-      <c r="H112" t="s">
-        <v>107</v>
-      </c>
-      <c r="I112">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113">
-        <v>138301</v>
-      </c>
-      <c r="B113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C113" t="s">
-        <v>105</v>
-      </c>
-      <c r="D113" t="s">
-        <v>106</v>
-      </c>
-      <c r="E113" t="s">
-        <v>102</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
-        <v>107</v>
-      </c>
-      <c r="H113" t="s">
-        <v>25</v>
-      </c>
-      <c r="I113">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114">
-        <v>138301</v>
-      </c>
-      <c r="B114" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" t="s">
-        <v>105</v>
-      </c>
-      <c r="D114" t="s">
-        <v>106</v>
-      </c>
-      <c r="E114" t="s">
-        <v>102</v>
-      </c>
-      <c r="F114">
-        <v>4</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" t="s">
-        <v>27</v>
-      </c>
-      <c r="I114">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115">
-        <v>138301</v>
-      </c>
-      <c r="B115" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" t="s">
-        <v>105</v>
-      </c>
-      <c r="D115" t="s">
-        <v>106</v>
-      </c>
-      <c r="E115" t="s">
-        <v>102</v>
-      </c>
-      <c r="F115">
-        <v>4</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" t="s">
-        <v>29</v>
-      </c>
-      <c r="I115">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116">
-        <v>138301</v>
-      </c>
-      <c r="B116" t="s">
-        <v>99</v>
-      </c>
-      <c r="C116" t="s">
-        <v>105</v>
-      </c>
-      <c r="D116" t="s">
-        <v>106</v>
-      </c>
-      <c r="E116" t="s">
-        <v>102</v>
-      </c>
-      <c r="F116">
-        <v>4</v>
-      </c>
-      <c r="G116" t="s">
-        <v>30</v>
-      </c>
-      <c r="H116" t="s">
-        <v>31</v>
-      </c>
-      <c r="I116">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117">
-        <v>138301</v>
-      </c>
-      <c r="B117" t="s">
-        <v>99</v>
-      </c>
-      <c r="C117" t="s">
-        <v>105</v>
-      </c>
-      <c r="D117" t="s">
-        <v>106</v>
-      </c>
-      <c r="E117" t="s">
-        <v>102</v>
-      </c>
-      <c r="F117">
-        <v>4</v>
-      </c>
-      <c r="G117" t="s">
-        <v>32</v>
-      </c>
-      <c r="H117" t="s">
-        <v>47</v>
-      </c>
-      <c r="I117">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118">
-        <v>138301</v>
-      </c>
-      <c r="B118" t="s">
-        <v>99</v>
-      </c>
-      <c r="C118" t="s">
-        <v>105</v>
-      </c>
-      <c r="D118" t="s">
-        <v>106</v>
-      </c>
-      <c r="E118" t="s">
-        <v>102</v>
-      </c>
-      <c r="F118">
-        <v>4</v>
-      </c>
-      <c r="G118" t="s">
-        <v>48</v>
-      </c>
-      <c r="H118" t="s">
-        <v>49</v>
-      </c>
-      <c r="I118">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119">
-        <v>138301</v>
-      </c>
-      <c r="B119" t="s">
-        <v>99</v>
-      </c>
-      <c r="C119" t="s">
-        <v>105</v>
-      </c>
-      <c r="D119" t="s">
-        <v>106</v>
-      </c>
-      <c r="E119" t="s">
-        <v>102</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119" t="s">
-        <v>50</v>
-      </c>
-      <c r="H119" t="s">
-        <v>108</v>
-      </c>
-      <c r="I119">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120">
-        <v>138301</v>
-      </c>
-      <c r="B120" t="s">
-        <v>99</v>
-      </c>
-      <c r="C120" t="s">
-        <v>109</v>
-      </c>
-      <c r="D120" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" t="s">
-        <v>102</v>
-      </c>
-      <c r="F120">
-        <v>2</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" t="s">
-        <v>14</v>
-      </c>
-      <c r="I120">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121">
-        <v>138301</v>
-      </c>
-      <c r="B121" t="s">
-        <v>99</v>
-      </c>
-      <c r="C121" t="s">
-        <v>109</v>
-      </c>
-      <c r="D121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" t="s">
-        <v>102</v>
-      </c>
-      <c r="F121">
-        <v>4</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" t="s">
-        <v>21</v>
-      </c>
-      <c r="I121">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122">
-        <v>138301</v>
-      </c>
-      <c r="B122" t="s">
-        <v>99</v>
-      </c>
-      <c r="C122" t="s">
-        <v>109</v>
-      </c>
-      <c r="D122" t="s">
-        <v>110</v>
-      </c>
-      <c r="E122" t="s">
-        <v>102</v>
-      </c>
-      <c r="F122">
-        <v>4</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" t="s">
-        <v>23</v>
-      </c>
-      <c r="I122">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123">
-        <v>138301</v>
-      </c>
-      <c r="B123" t="s">
-        <v>99</v>
-      </c>
-      <c r="C123" t="s">
-        <v>109</v>
-      </c>
-      <c r="D123" t="s">
-        <v>110</v>
-      </c>
-      <c r="E123" t="s">
-        <v>102</v>
-      </c>
-      <c r="F123">
-        <v>4</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" t="s">
-        <v>107</v>
-      </c>
-      <c r="I123">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124">
-        <v>138301</v>
-      </c>
-      <c r="B124" t="s">
-        <v>99</v>
-      </c>
-      <c r="C124" t="s">
-        <v>109</v>
-      </c>
-      <c r="D124" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" t="s">
-        <v>102</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
-        <v>107</v>
-      </c>
-      <c r="H124" t="s">
-        <v>25</v>
-      </c>
-      <c r="I124">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125">
-        <v>138301</v>
-      </c>
-      <c r="B125" t="s">
-        <v>99</v>
-      </c>
-      <c r="C125" t="s">
-        <v>109</v>
-      </c>
-      <c r="D125" t="s">
-        <v>110</v>
-      </c>
-      <c r="E125" t="s">
-        <v>102</v>
-      </c>
-      <c r="F125">
-        <v>4</v>
-      </c>
-      <c r="G125" t="s">
-        <v>26</v>
-      </c>
-      <c r="H125" t="s">
-        <v>27</v>
-      </c>
-      <c r="I125">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126">
-        <v>138301</v>
-      </c>
-      <c r="B126" t="s">
-        <v>99</v>
-      </c>
-      <c r="C126" t="s">
-        <v>109</v>
-      </c>
-      <c r="D126" t="s">
-        <v>110</v>
-      </c>
-      <c r="E126" t="s">
-        <v>102</v>
-      </c>
-      <c r="F126">
-        <v>4</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" t="s">
-        <v>29</v>
-      </c>
-      <c r="I126">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127">
-        <v>138301</v>
-      </c>
-      <c r="B127" t="s">
-        <v>99</v>
-      </c>
-      <c r="C127" t="s">
-        <v>109</v>
-      </c>
-      <c r="D127" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" t="s">
-        <v>102</v>
-      </c>
-      <c r="F127">
-        <v>4</v>
-      </c>
-      <c r="G127" t="s">
-        <v>30</v>
-      </c>
-      <c r="H127" t="s">
-        <v>31</v>
-      </c>
-      <c r="I127">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128">
-        <v>138301</v>
-      </c>
-      <c r="B128" t="s">
-        <v>99</v>
-      </c>
-      <c r="C128" t="s">
-        <v>109</v>
-      </c>
-      <c r="D128" t="s">
-        <v>110</v>
-      </c>
-      <c r="E128" t="s">
-        <v>102</v>
-      </c>
-      <c r="F128">
-        <v>4</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
-      <c r="H128" t="s">
-        <v>47</v>
-      </c>
-      <c r="I128">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129">
-        <v>138301</v>
-      </c>
-      <c r="B129" t="s">
-        <v>99</v>
-      </c>
-      <c r="C129" t="s">
-        <v>109</v>
-      </c>
-      <c r="D129" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" t="s">
-        <v>102</v>
-      </c>
-      <c r="F129">
-        <v>4</v>
-      </c>
-      <c r="G129" t="s">
-        <v>48</v>
-      </c>
-      <c r="H129" t="s">
-        <v>49</v>
-      </c>
-      <c r="I129">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130">
-        <v>138301</v>
-      </c>
-      <c r="B130" t="s">
-        <v>99</v>
-      </c>
-      <c r="C130" t="s">
-        <v>109</v>
-      </c>
-      <c r="D130" t="s">
-        <v>110</v>
-      </c>
-      <c r="E130" t="s">
-        <v>102</v>
-      </c>
-      <c r="F130">
-        <v>2</v>
-      </c>
-      <c r="G130" t="s">
-        <v>50</v>
-      </c>
-      <c r="H130" t="s">
-        <v>111</v>
-      </c>
-      <c r="I130">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
